--- a/files/TOC_logframe-fr.xlsx
+++ b/files/TOC_logframe-fr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fmarting\Documents\UNESCO &amp; others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88ABB367-0D0F-4E2F-BFDC-7640BE46C30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56E3E44-09C4-47BC-BB61-1809AA385114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="5070" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5415" yWindow="5415" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC_Logframe_SERA" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="95">
   <si>
     <t>Niveau</t>
   </si>
@@ -277,13 +277,187 @@
   </si>
   <si>
     <t>R: points trimestriels ; A: retours jeunes/familles ; L: itérations.</t>
+  </si>
+  <si>
+    <t>Exemples “décrochage / SERA” pour baseline</t>
+  </si>
+  <si>
+    <t>Baseline = (valeur initiale) de chaque indicateur au démarrage</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Indicateur : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>% de jeunes signalés contactés &lt; 30 jours</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Baseline</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : ex. 42% l’an dernier (moyenne 2024–2025 sur ton territoire)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Indicateur : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>taux de sorties sans qualification</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Baseline</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : ex. 8,1% (année scolaire N-1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Indicateur : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>absentéisme chronique</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Baseline</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : ex. 6,3% des élèves (année scolaire N-1)</t>
+    </r>
+  </si>
+  <si>
+    <t>Bonnes pratiques dans ce cadre</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Baseline = idéalement une </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>moyenne</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sur 12 mois (ou 1 année scolaire), pas un instantané.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Baseline </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>désagrégée</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> si possible (sexe, territoire, statut socio-éco, établissement) : pour alignement direct avec SDG4 / equity analysis</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Si l’indicateur est nouveau (pas d’historique), on met : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“Baseline : à établir”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + une activité SERA “établissement de la baseline” (audit data + première mesure).</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,9 +470,83 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,8 +558,14 @@
         <fgColor rgb="FF1F4E79"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -334,11 +588,207 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF002060"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF002060"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF002060"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF002060"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF002060"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF002060"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF002060"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -346,6 +796,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,7 +1357,140 @@
         <v>82</v>
       </c>
     </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="3"/>
+      <c r="D11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="17"/>
+      <c r="D14" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="17"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="17"/>
+      <c r="D16" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="17"/>
+      <c r="D17" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="17"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="16"/>
+    </row>
+    <row r="19" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="17"/>
+      <c r="D19" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="16"/>
+    </row>
+    <row r="20" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="21"/>
+      <c r="D20" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="16"/>
+    </row>
+    <row r="21" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="23"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="26"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
+    </row>
+    <row r="23" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="33"/>
+    </row>
+    <row r="24" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="33"/>
+    </row>
+    <row r="25" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="34"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C13:C20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/files/TOC_logframe-fr.xlsx
+++ b/files/TOC_logframe-fr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fmarting\Documents\UNESCO &amp; others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56E3E44-09C4-47BC-BB61-1809AA385114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24F75BE-3472-4967-A3D5-DF6EEA3AF8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5415" yWindow="5415" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC_Logframe_SERA" sheetId="2" r:id="rId1"/>
@@ -457,7 +457,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,13 +471,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -796,34 +789,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -832,30 +819,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1051,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="145" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1368,6 +1361,7 @@
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
       <c r="E12" s="10"/>
@@ -1375,117 +1369,117 @@
       <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="17"/>
-      <c r="D14" s="18" t="s">
+      <c r="C14" s="33"/>
+      <c r="D14" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="17"/>
-      <c r="D15" s="19"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="16"/>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="17"/>
-      <c r="D16" s="13" t="s">
+      <c r="C16" s="33"/>
+      <c r="D16" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="15"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="16"/>
+      <c r="G16" s="15"/>
     </row>
     <row r="17" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="17"/>
-      <c r="D17" s="18" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="15"/>
+      <c r="E17" s="14"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="16"/>
+      <c r="G17" s="15"/>
     </row>
     <row r="18" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="17"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="9"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="16"/>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="17"/>
-      <c r="D19" s="20" t="s">
+      <c r="C19" s="33"/>
+      <c r="D19" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="15"/>
+      <c r="E19" s="14"/>
       <c r="F19" s="10"/>
-      <c r="G19" s="16"/>
+      <c r="G19" s="15"/>
     </row>
     <row r="20" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="21"/>
-      <c r="D20" s="22" t="s">
+      <c r="C20" s="34"/>
+      <c r="D20" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="16"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
     </row>
     <row r="21" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="23"/>
-      <c r="D21" s="24"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="11"/>
     </row>
     <row r="22" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="28"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="25"/>
     </row>
     <row r="23" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="33"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="30"/>
     </row>
     <row r="24" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="33"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="30"/>
     </row>
     <row r="25" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="34"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/files/TOC_logframe-fr.xlsx
+++ b/files/TOC_logframe-fr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fmarting\Documents\UNESCO &amp; others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24F75BE-3472-4967-A3D5-DF6EEA3AF8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88ABB367-0D0F-4E2F-BFDC-7640BE46C30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5070" yWindow="5070" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC_Logframe_SERA" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="83">
   <si>
     <t>Niveau</t>
   </si>
@@ -277,187 +277,13 @@
   </si>
   <si>
     <t>R: points trimestriels ; A: retours jeunes/familles ; L: itérations.</t>
-  </si>
-  <si>
-    <t>Exemples “décrochage / SERA” pour baseline</t>
-  </si>
-  <si>
-    <t>Baseline = (valeur initiale) de chaque indicateur au démarrage</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Indicateur : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>% de jeunes signalés contactés &lt; 30 jours</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Baseline</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : ex. 42% l’an dernier (moyenne 2024–2025 sur ton territoire)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Indicateur : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>taux de sorties sans qualification</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Baseline</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : ex. 8,1% (année scolaire N-1)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Indicateur : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>absentéisme chronique</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Baseline</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : ex. 6,3% des élèves (année scolaire N-1)</t>
-    </r>
-  </si>
-  <si>
-    <t>Bonnes pratiques dans ce cadre</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Baseline = idéalement une </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>moyenne</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> sur 12 mois (ou 1 année scolaire), pas un instantané.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Baseline </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>désagrégée</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> si possible (sexe, territoire, statut socio-éco, établissement) : pour alignement direct avec SDG4 / equity analysis</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Si l’indicateur est nouveau (pas d’historique), on met : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>“Baseline : à établir”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + une activité SERA “établissement de la baseline” (audit data + première mesure).</t>
-    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,76 +296,9 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -551,14 +310,8 @@
         <fgColor rgb="FF1F4E79"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -581,273 +334,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF002060"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF002060"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF002060"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF002060"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF002060"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF002060"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF002060"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1042,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="145" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1350,141 +847,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="3"/>
-      <c r="D11" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="33"/>
-      <c r="D14" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="33"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="33"/>
-      <c r="D16" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="33"/>
-      <c r="D17" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="15"/>
-    </row>
-    <row r="18" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="33"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="15"/>
-    </row>
-    <row r="19" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="33"/>
-      <c r="D19" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="15"/>
-    </row>
-    <row r="20" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="34"/>
-      <c r="D20" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
-    </row>
-    <row r="21" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="20"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="25"/>
-    </row>
-    <row r="23" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="30"/>
-    </row>
-    <row r="24" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="30"/>
-    </row>
-    <row r="25" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="31"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C13:C20"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
